--- a/Александр Никитин.xlsx
+++ b/Александр Никитин.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,84 +439,447 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Никитин Александр.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-3</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образец., Подложка, 1МК-3</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Ninelle-SHU,Образец, кассеты, №86 ЧЯ-53</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-5</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-6</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Дека, образец 3Д, буклет, 11МК</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойка, 35МК-4</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Дека, отбойники из ДСП переговорная комната</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образцы - Проработка нанесения клея, Подложка под планшет, 17МК-2</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Дека, коробки на печать</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Дека тумбы в переговорную комнату</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>SHU, Выкрас ,модуль ,№ 149 ЧЯ-8</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-    </row>
-    <row r="24"/>
-    <row r="25"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+    </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-    </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Р.М. Подложка, 13МК-2</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Вымпелстрой,РМ, панель, таблички, обналичка № 5ЮО</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Дека, защитный экран, РМ, 1-1 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Кассеты Парадайз Эластомерик, ТЗ 232СФ-2</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Барьер, Р.М., Стенд, 3МК</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>SHU, РМ,модуль ,№ 149 ЧЯ-6</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, РМ оборудования для ЗЯ, 438-4 КК</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, бриф на разработку конструктива Redken, ТЗ 190СФ-4</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Все подставки, Р.М., 45МК</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Мария, РМ, стойка, № 6ЮО</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Elemax,РМ, Шелфтокер, № 173 ЧЯ-4</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ тумбы S813000402, 33-1 КК</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Р.М., Подложка, 1МК-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Р.М. Подложка, 13МК</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ дисплеев под мыло, 419-7 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Нинель,Модуль, РМ № 4 ЧЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз тумбы S813000402, 33-2 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз тумбы S813000402, 33 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
+    </row>
     <row r="67"/>
     <row r="68"/>
     <row r="69"/>

--- a/Александр Никитин.xlsx
+++ b/Александр Никитин.xlsx
@@ -441,7 +441,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -468,77 +468,77 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-3</t>
+          <t>Подружка, образцы тендер, 422-1 КК</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ</t>
+          <t>Диваж, Образец, Поддон на 60см, ТЗ 218СФ</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>ЭрихКраузе, 2 образца стойки, 405-2 КК</t>
+          <t>SHU, образцы,модули , № 149 ЧЯ-2</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ-1</t>
+          <t>КИКИ , образец, подставка, 33МК</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образец., Подложка, 1МК-3</t>
+          <t>Нинель, Образец, Модуль-Оборудование №165 ЧЯ</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Ninelle-SHU,Образец, кассеты, №86 ЧЯ-53</t>
+          <t>Инситех, образец, пленка, 32МК</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-3</t>
+          <t>Инситех, Образцы подложки, 30МК</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-5</t>
+          <t>Лореаль, Образец, Anthelios 2022 Навигация тендер, ТЗ 207СФ-2</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -548,77 +548,77 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец, бриф на разработку конструктива Redken, ТЗ 190СФ-6</t>
+          <t>38МК Ревлон, образец, Подставка 50см</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Elemax,Образец, Шелфтокер, № 173 ЧЯ-1</t>
+          <t>Лореаль, Образец, Тендер по Lancome (решетка, заглушка), ТЗ 217СФ-1</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Дека, образец 3Д, буклет, 11МК</t>
+          <t>Градиент,Образец, Дисплей, 442КК-2, МЕГА СРОЧНО!!!</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Кики, Образец, Стойка, 35МК-4</t>
+          <t>Лореаль, Образец, Визибилити Пакет 2022, ТЗ 201СФ-3</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Вымпелстрой, образец , табличка, № 5-1ЮО</t>
+          <t>Лореаль, Образец, Тендер по Lancome (решетка, заглушка), ТЗ 217СФ-2</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Дека, отбойники из ДСП переговорная комната</t>
+          <t>КИКИ, образец, плашка с логотипом, 7МК-5</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образцы - Проработка нанесения клея, Подложка под планшет, 17МК-2</t>
+          <t>Лореаль, Образец, Кассеты Парадайз Эластомерик, ТЗ 232СФ</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Дека, коробки на печать</t>
+          <t>Инситех, образцы, подложка, 36МК</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
@@ -628,17 +628,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Дека тумбы в переговорную комнату</t>
+          <t>Кики, образцы,выкладка подставок в М.П. 34МК</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>SHU, Выкрас ,модуль ,№ 149 ЧЯ-8</t>
+          <t>Джонсон и Джонсон, образец рамки, 420-1 КК</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>7400</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="24">
@@ -678,7 +678,7 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Р.М. Подложка, 13МК-2</t>
+          <t>Инситех, Р.М., бумажная подложка и нанесение клея, 43МК</t>
         </is>
       </c>
       <c r="B27" s="3" t="n"/>
@@ -686,7 +686,7 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Вымпелстрой,РМ, панель, таблички, обналичка № 5ЮО</t>
+          <t>Лореаль, РМ, Aloe Serum posm luxe, ТЗ 216СФ-1</t>
         </is>
       </c>
       <c r="B28" s="3" t="n"/>
@@ -694,7 +694,7 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Дека, защитный экран, РМ, 1-1 ЮЛ</t>
+          <t>Спектрум, РМ,Ваза, № 152 ЧЯ-4</t>
         </is>
       </c>
       <c r="B29" s="3" t="n"/>
@@ -702,7 +702,7 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, РМ, Кассеты Парадайз Эластомерик, ТЗ 232СФ-2</t>
+          <t>Лореаль, РМ, Тендер Стеллажи Подружка, ТЗ 233СФ</t>
         </is>
       </c>
       <c r="B30" s="3" t="n"/>
@@ -710,7 +710,7 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Барьер, Р.М., Стенд, 3МК</t>
+          <t>Amazfit, РМ, дисплей, № 147 ЮО</t>
         </is>
       </c>
       <c r="B31" s="3" t="n"/>
@@ -718,7 +718,7 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>SHU, РМ,модуль ,№ 149 ЧЯ-6</t>
+          <t>Вес Медиа, Р.М. витрины, 27МК-1</t>
         </is>
       </c>
       <c r="B32" s="3" t="n"/>
@@ -726,7 +726,7 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>АртВизаж, РМ оборудования для ЗЯ, 438-4 КК</t>
+          <t>Кики, Р.М., все подставки,ТЗ 29МК</t>
         </is>
       </c>
       <c r="B33" s="3" t="n"/>
@@ -734,7 +734,7 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, РМ, бриф на разработку конструктива Redken, ТЗ 190СФ-4</t>
+          <t>Алфеев А, РМ, наклейки, 18 ЮЛ</t>
         </is>
       </c>
       <c r="B34" s="3" t="n"/>
@@ -742,7 +742,7 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Триумф, Все подставки, Р.М., 45МК</t>
+          <t>Elemax, РМ,Стойка № 164 ЧЯ-6</t>
         </is>
       </c>
       <c r="B35" s="3" t="n"/>
@@ -750,7 +750,7 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Мария, РМ, стойка, № 6ЮО</t>
+          <t>Ревлон, Р.М., Подставка 50см, 38МК-1</t>
         </is>
       </c>
       <c r="B36" s="3" t="n"/>
@@ -758,7 +758,7 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Elemax,РМ, Шелфтокер, № 173 ЧЯ-4</t>
+          <t>Лореаль, РМ, Aloe Serum posm luxe, ТЗ 216СФ-3</t>
         </is>
       </c>
       <c r="B37" s="3" t="n"/>
@@ -766,7 +766,7 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ тумбы S813000402, 33-1 КК</t>
+          <t>Трифанов, РМ, № 166 ЧЯ</t>
         </is>
       </c>
       <c r="B38" s="3" t="n"/>
@@ -775,71 +775,107 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Р.М., Подложка, 1МК-2</t>
+          <t>Инситех, Р.М, подложка, 36МК-1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Р.М. Подложка, 13МК</t>
+          <t>КИКИ ,Р.М, подставка, 33МК - 2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ дисплеев под мыло, 419-7 КК</t>
+          <t>Единая, Европа, РМ, Стойка для АЗС_Deka, ТЗ 231СФ-1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Нинель,Модуль, РМ № 4 ЧЯ</t>
+          <t>Elemax, РМ, Оборудование №ТЗ 164 ЧЯ-4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эскиз тумбы S813000402, 33-2 КК</t>
+          <t>Луч, РМ , оборудование №160 ЧЯ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эскиз тумбы S813000402, 33 КК</t>
+          <t>Elemax, РМ, Оборудование №ТЗ 164 ЧЯ-3</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>SHU, РМ,модули , № 149 ЧЯ-4</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Тендер по Lancome (решетка, заглушка), ТЗ 217СФ</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Клипсы, ТЗ 219СФ</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Нинель,РМ, оборудование №162 ЧЯ</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Спортмастер, РМ, дисплеи, № 139 ЮО</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>КИКИ, М.П., Подставки, 29МК-1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Градиент,Чертеж, Дисплей, 442КК, МЕГА СРОЧНО!!!</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Р.М. Бумажная подложка, 36МК-1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Градиент,Р.М., Дисплей, 442КК-3, МЕГА СРОЧНО!!!</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
